--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPMW_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_LSPMW_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.737349635212631</v>
+        <v>-1.419589570654476</v>
       </c>
       <c r="D2">
-        <v>0.08250884859542551</v>
+        <v>0.1697424384815207</v>
       </c>
       <c r="E2">
         <v>0.6532546908577055</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.2074158672496176</v>
+        <v>0.2018720937891392</v>
       </c>
       <c r="D3">
-        <v>0.8357102447334837</v>
+        <v>0.8418717398055959</v>
       </c>
       <c r="E3">
         <v>0.6532546908577055</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.1514059112251363</v>
+        <v>0.1479249450853262</v>
       </c>
       <c r="D4">
-        <v>0.8796737155660019</v>
+        <v>0.8837494078178698</v>
       </c>
       <c r="E4">
         <v>0.6532546908577055</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.8817417303864513</v>
+        <v>-0.8936201948015642</v>
       </c>
       <c r="D5">
-        <v>0.3780426972516726</v>
+        <v>0.3811970180824504</v>
       </c>
       <c r="E5">
         <v>0.6532546908577055</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.904170306452848</v>
+        <v>1.486649141724645</v>
       </c>
       <c r="D6">
-        <v>0.05705879305275641</v>
+        <v>0.1512994932407943</v>
       </c>
       <c r="E6">
         <v>0.7057737039153112</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.864097256719383</v>
+        <v>1.885000145528612</v>
       </c>
       <c r="D7">
-        <v>0.06248245783105921</v>
+        <v>0.07270783678968828</v>
       </c>
       <c r="E7">
         <v>0.7057737039153112</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>0.8981091662172735</v>
+        <v>0.9103759789715122</v>
       </c>
       <c r="D8">
-        <v>0.3692561212760086</v>
+        <v>0.3724913412073843</v>
       </c>
       <c r="E8">
         <v>0.7057737039153112</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.03142737106694987</v>
+        <v>-0.02949473566067731</v>
       </c>
       <c r="D9">
-        <v>0.9749324482205024</v>
+        <v>0.9767359525653478</v>
       </c>
       <c r="E9">
         <v>0.6483733578521602</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-1.10291012499346</v>
+        <v>-0.9557333443835314</v>
       </c>
       <c r="D10">
-        <v>0.2702242529186965</v>
+        <v>0.3495919743532325</v>
       </c>
       <c r="E10">
         <v>0.6483733578521602</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.029479101274333</v>
+        <v>-0.8976064817577675</v>
       </c>
       <c r="D11">
-        <v>0.303402872193052</v>
+        <v>0.3791138700936876</v>
       </c>
       <c r="E11">
         <v>0.649091697380616</v>
